--- a/scripts/performance/report_template.xlsx
+++ b/scripts/performance/report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25787" windowHeight="14880" tabRatio="500"/>
+    <workbookView windowWidth="16457" windowHeight="5588" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pynvme" sheetId="1" r:id="rId1"/>
@@ -153,22 +153,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -176,52 +183,120 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -229,82 +304,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -336,7 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +366,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,25 +456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,109 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +534,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,7 +573,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,182 +627,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -825,55 +825,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -909,7 +909,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -919,7 +919,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>sequential write </a:t>
             </a:r>
@@ -928,7 +928,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>1st pass</a:t>
             </a:r>
@@ -937,7 +937,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t> (x: second, y: B/s)</a:t>
             </a:r>
@@ -945,7 +945,7 @@
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -1710,7 +1710,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1762,7 +1762,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1820,7 +1820,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1830,7 +1830,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>4K random write (x: second, y: IOPS)</a:t>
             </a:r>
@@ -1838,7 +1838,7 @@
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -3197,7 +3197,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3249,7 +3249,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3307,7 +3307,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3317,7 +3317,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>sequential write 2nd </a:t>
             </a:r>
@@ -3326,7 +3326,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>pass</a:t>
             </a:r>
@@ -3335,7 +3335,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t> (x: second, y: B/s)</a:t>
             </a:r>
@@ -3343,7 +3343,7 @@
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -4702,7 +4702,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4754,7 +4754,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4812,7 +4812,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4822,7 +4822,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>sequential write 3rd </a:t>
             </a:r>
@@ -4831,7 +4831,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>pass </a:t>
             </a:r>
@@ -4840,7 +4840,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>(x: second, y: B/s)</a:t>
             </a:r>
@@ -4848,7 +4848,7 @@
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -6207,7 +6207,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6259,7 +6259,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6317,7 +6317,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6327,7 +6327,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>latency against IOPS, 2R1W (x: IOPS, y: us)</a:t>
             </a:r>
@@ -6335,7 +6335,7 @@
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -6749,7 +6749,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6800,7 +6800,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6858,7 +6858,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -6868,7 +6868,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
               <a:t>read write mixed (x: read %, y: IOPS)</a:t>
             </a:r>
@@ -6876,7 +6876,7 @@
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -7237,7 +7237,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -7288,7 +7288,7 @@
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -7342,8 +7342,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5372100" y="7797800"/>
-        <a:ext cx="7616190" cy="3458210"/>
+        <a:off x="5144770" y="6104255"/>
+        <a:ext cx="7384415" cy="2651760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7372,8 +7372,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5334635" y="11640820"/>
-        <a:ext cx="7639685" cy="3362960"/>
+        <a:off x="5107305" y="9060180"/>
+        <a:ext cx="7407910" cy="2556510"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7402,8 +7402,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5333365" y="15502255"/>
-        <a:ext cx="7618730" cy="3447415"/>
+        <a:off x="5106035" y="11955780"/>
+        <a:ext cx="7386955" cy="2639060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7432,8 +7432,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5342890" y="19335750"/>
-        <a:ext cx="7607935" cy="3770630"/>
+        <a:off x="5115560" y="14900275"/>
+        <a:ext cx="7376160" cy="2883535"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7462,8 +7462,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5353685" y="23322280"/>
-        <a:ext cx="7609205" cy="3815080"/>
+        <a:off x="5126355" y="17919065"/>
+        <a:ext cx="7377430" cy="2927985"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7492,8 +7492,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5354320" y="27374850"/>
-        <a:ext cx="7586980" cy="5115560"/>
+        <a:off x="5126990" y="21003895"/>
+        <a:ext cx="7355205" cy="3905885"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7798,19 +7798,19 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1"/>
   <cols>
-    <col min="1" max="3" width="9.31896551724138" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.12931034482759" customWidth="1"/>
-    <col min="5" max="5" width="12.5603448275862" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.6724137931034" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.948275862069" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.948275862069" style="4" customWidth="1"/>
-    <col min="9" max="9" width="33.8103448275862" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.98275862068966" customWidth="1"/>
+    <col min="1" max="3" width="9.31531531531532" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.12612612612613" customWidth="1"/>
+    <col min="5" max="5" width="12.5585585585586" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.6756756756757" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.9459459459459" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.9459459459459" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.8108108108108" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.98198198198198" customWidth="1"/>
     <col min="11" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0</v>
+        <v>512110190592</v>
       </c>
       <c r="B4">
         <v>1024209543168</v>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>INT(A4/1000/1000/1000)&amp;"GB"</f>
-        <v>0GB</v>
+        <v>512GB</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>INT(B4/1000/1000/1000)&amp;"GB"</f>
